--- a/StructureDefinition-ext-R5-ConditionDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ConditionDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-ConditionDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ConditionDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,6 +393,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.url</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -439,6 +442,9 @@
     <t>Extension.extension:version.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.version</t>
+  </si>
+  <si>
     <t>Extension.extension:version.value[x]</t>
   </si>
   <si>
@@ -467,6 +473,9 @@
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.versionAlgorithm</t>
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.value[x]</t>
@@ -503,6 +512,9 @@
     <t>Extension.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.name</t>
+  </si>
+  <si>
     <t>Extension.extension:name.value[x]</t>
   </si>
   <si>
@@ -533,6 +545,9 @@
     <t>Extension.extension:title.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.title</t>
+  </si>
+  <si>
     <t>Extension.extension:title.value[x]</t>
   </si>
   <si>
@@ -558,6 +573,9 @@
   </si>
   <si>
     <t>Extension.extension:subtitle.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.subtitle</t>
   </si>
   <si>
     <t>Extension.extension:subtitle.value[x]</t>
@@ -591,6 +609,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -634,6 +655,9 @@
     <t>Extension.extension:experimental.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.experimental</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental.value[x]</t>
   </si>
   <si>
@@ -669,6 +693,9 @@
     <t>Extension.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.date</t>
+  </si>
+  <si>
     <t>Extension.extension:date.value[x]</t>
   </si>
   <si>
@@ -703,6 +730,9 @@
     <t>Extension.extension:publisher.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.publisher</t>
+  </si>
+  <si>
     <t>Extension.extension:publisher.value[x]</t>
   </si>
   <si>
@@ -734,6 +764,9 @@
     <t>Extension.extension:contact.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.contact</t>
+  </si>
+  <si>
     <t>Extension.extension:contact.value[x]</t>
   </si>
   <si>
@@ -768,6 +801,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -802,6 +838,9 @@
     <t>Extension.extension:useContext.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.useContext</t>
+  </si>
+  <si>
     <t>Extension.extension:useContext.value[x]</t>
   </si>
   <si>
@@ -837,6 +876,9 @@
     <t>Extension.extension:jurisdiction.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.jurisdiction</t>
+  </si>
+  <si>
     <t>Extension.extension:jurisdiction.value[x]</t>
   </si>
   <si>
@@ -877,6 +919,9 @@
     <t>Extension.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.code</t>
+  </si>
+  <si>
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
@@ -916,6 +961,9 @@
     <t>Extension.extension:severity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.severity</t>
+  </si>
+  <si>
     <t>Extension.extension:severity.value[x]</t>
   </si>
   <si>
@@ -952,6 +1000,9 @@
     <t>Extension.extension:bodySite.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.bodySite</t>
+  </si>
+  <si>
     <t>Extension.extension:bodySite.value[x]</t>
   </si>
   <si>
@@ -985,6 +1036,9 @@
     <t>Extension.extension:stage.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.stage</t>
+  </si>
+  <si>
     <t>Extension.extension:stage.value[x]</t>
   </si>
   <si>
@@ -1018,6 +1072,9 @@
     <t>Extension.extension:hasSeverity.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.hasSeverity</t>
+  </si>
+  <si>
     <t>Extension.extension:hasSeverity.value[x]</t>
   </si>
   <si>
@@ -1045,6 +1102,9 @@
     <t>Extension.extension:hasBodySite.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.hasBodySite</t>
+  </si>
+  <si>
     <t>Extension.extension:hasBodySite.value[x]</t>
   </si>
   <si>
@@ -1072,6 +1132,9 @@
     <t>Extension.extension:hasStage.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.hasStage</t>
+  </si>
+  <si>
     <t>Extension.extension:hasStage.value[x]</t>
   </si>
   <si>
@@ -1099,6 +1162,9 @@
     <t>Extension.extension:definition.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.definition</t>
+  </si>
+  <si>
     <t>Extension.extension:definition.value[x]</t>
   </si>
   <si>
@@ -1156,6 +1222,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation.category</t>
+  </si>
+  <si>
     <t>Extension.extension:observation.extension:category.value[x]</t>
   </si>
   <si>
@@ -1187,6 +1256,9 @@
   </si>
   <si>
     <t>Extension.extension:observation.extension:code.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation.code</t>
   </si>
   <si>
     <t>Extension.extension:observation.extension:code.value[x]</t>
@@ -1253,6 +1325,9 @@
     <t>Extension.extension:medication.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication.category</t>
+  </si>
+  <si>
     <t>Extension.extension:medication.extension:category.value[x]</t>
   </si>
   <si>
@@ -1283,6 +1358,9 @@
     <t>Extension.extension:medication.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication.code</t>
+  </si>
+  <si>
     <t>Extension.extension:medication.extension:code.value[x]</t>
   </si>
   <si>
@@ -1346,6 +1424,9 @@
     <t>Extension.extension:precondition.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition.type</t>
+  </si>
+  <si>
     <t>Extension.extension:precondition.extension:type.value[x]</t>
   </si>
   <si>
@@ -1364,6 +1445,9 @@
     <t>Extension.extension:precondition.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition.code</t>
+  </si>
+  <si>
     <t>Extension.extension:precondition.extension:code.value[x]</t>
   </si>
   <si>
@@ -1389,6 +1473,9 @@
   </si>
   <si>
     <t>Extension.extension:precondition.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition.value</t>
   </si>
   <si>
     <t>Extension.extension:precondition.extension:value.value[x]</t>
@@ -1431,6 +1518,9 @@
     <t>Extension.extension:team.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.team</t>
+  </si>
+  <si>
     <t>Extension.extension:team.value[x]</t>
   </si>
   <si>
@@ -1483,6 +1573,9 @@
     <t>Extension.extension:questionnaire.extension:purpose.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire.purpose</t>
+  </si>
+  <si>
     <t>Extension.extension:questionnaire.extension:purpose.value[x]</t>
   </si>
   <si>
@@ -1508,6 +1601,9 @@
   </si>
   <si>
     <t>Extension.extension:questionnaire.extension:reference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire.reference</t>
   </si>
   <si>
     <t>Extension.extension:questionnaire.extension:reference.value[x]</t>
@@ -1571,6 +1667,9 @@
     <t>Extension.extension:plan.extension:role.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan.role</t>
+  </si>
+  <si>
     <t>Extension.extension:plan.extension:role.value[x]</t>
   </si>
   <si>
@@ -1593,6 +1692,9 @@
   </si>
   <si>
     <t>Extension.extension:plan.extension:reference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan.reference</t>
   </si>
   <si>
     <t>Extension.extension:plan.extension:reference.value[x]</t>
@@ -2756,7 +2858,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2798,7 +2900,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2813,15 +2915,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2903,7 +3005,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2915,21 +3017,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2954,16 +3056,16 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3032,7 +3134,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -3135,7 +3237,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -3240,7 +3342,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -3283,7 +3385,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3325,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3340,15 +3442,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3374,13 +3476,13 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3430,7 +3532,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3442,21 +3544,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3481,16 +3583,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3559,7 +3661,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -3662,7 +3764,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -3767,7 +3869,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -3810,7 +3912,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3852,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3867,15 +3969,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3898,16 +4000,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3957,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3969,21 +4071,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4008,16 +4110,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4086,7 +4188,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4189,7 +4291,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4294,7 +4396,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4337,7 +4439,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4379,7 +4481,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4394,15 +4496,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4428,13 +4530,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4484,7 +4586,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4496,21 +4598,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4535,16 +4637,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4613,7 +4715,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4716,7 +4818,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4821,7 +4923,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4864,7 +4966,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4906,7 +5008,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4921,15 +5023,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4955,13 +5057,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5011,7 +5113,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5023,21 +5125,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5062,14 +5164,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5138,7 +5240,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5241,7 +5343,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5346,7 +5448,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5389,7 +5491,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5533,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5446,15 +5548,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5480,10 +5582,10 @@
         <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5534,7 +5636,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5546,21 +5648,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5585,16 +5687,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5663,7 +5765,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5766,7 +5868,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5871,7 +5973,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5914,7 +6016,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5956,7 +6058,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5971,15 +6073,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6002,16 +6104,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6037,13 +6139,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6061,7 +6163,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6073,21 +6175,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6112,16 +6214,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6190,7 +6292,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6293,7 +6395,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6398,7 +6500,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6441,7 +6543,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6483,7 +6585,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6498,15 +6600,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6529,16 +6631,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6588,7 +6690,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6600,21 +6702,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6639,16 +6741,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6717,7 +6819,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6820,7 +6922,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6925,7 +7027,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -6968,7 +7070,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7010,7 +7112,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7025,15 +7127,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7056,16 +7158,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7115,7 +7217,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7127,21 +7229,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7166,16 +7268,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7244,7 +7346,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7347,7 +7449,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7452,7 +7554,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7495,7 +7597,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7537,7 +7639,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7552,15 +7654,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7586,13 +7688,13 @@
         <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7642,7 +7744,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7654,21 +7756,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7693,16 +7795,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7771,7 +7873,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7874,7 +7976,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -7979,7 +8081,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -8022,7 +8124,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8064,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8079,15 +8181,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8110,16 +8212,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8169,7 +8271,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8181,21 +8283,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8220,16 +8322,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8400,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8401,7 +8503,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8506,7 +8608,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8549,7 +8651,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8591,7 +8693,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8606,15 +8708,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8637,16 +8739,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8696,7 +8798,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8708,21 +8810,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8747,16 +8849,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8825,7 +8927,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8928,7 +9030,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -9033,7 +9135,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -9076,7 +9178,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9118,7 +9220,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -9133,15 +9235,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9164,16 +9266,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9223,7 +9325,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9235,21 +9337,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9274,16 +9376,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9352,7 +9454,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9455,7 +9557,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9560,7 +9662,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9603,7 +9705,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9645,7 +9747,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9660,15 +9762,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9691,16 +9793,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9726,13 +9828,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -9750,7 +9852,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9762,21 +9864,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9801,14 +9903,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9877,7 +9979,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -9980,7 +10082,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -10085,7 +10187,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10128,7 +10230,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10170,7 +10272,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -10185,15 +10287,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10216,13 +10318,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10249,13 +10351,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -10273,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10285,21 +10387,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10324,16 +10426,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10402,7 +10504,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10505,7 +10607,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10610,7 +10712,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10653,7 +10755,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10695,7 +10797,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -10710,15 +10812,15 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10741,16 +10843,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10776,13 +10878,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -10800,7 +10902,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -10812,21 +10914,21 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10851,16 +10953,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10929,7 +11031,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11032,7 +11134,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11137,7 +11239,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11180,7 +11282,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11222,7 +11324,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -11237,15 +11339,15 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11268,16 +11370,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11303,13 +11405,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -11327,7 +11429,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11339,21 +11441,21 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11378,14 +11480,14 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11454,7 +11556,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11557,7 +11659,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11662,7 +11764,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11705,7 +11807,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11747,7 +11849,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11762,15 +11864,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11793,13 +11895,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11826,13 +11928,13 @@
         <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>77</v>
@@ -11850,7 +11952,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11862,21 +11964,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11901,14 +12003,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11977,7 +12079,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12080,7 +12182,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12185,7 +12287,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12228,7 +12330,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12270,7 +12372,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -12285,15 +12387,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12316,13 +12418,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12373,7 +12475,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12385,21 +12487,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12424,14 +12526,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12500,7 +12602,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12603,7 +12705,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12708,7 +12810,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12751,7 +12853,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12793,7 +12895,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -12808,15 +12910,15 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12839,13 +12941,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12896,7 +12998,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -12908,21 +13010,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12947,14 +13049,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13023,7 +13125,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13126,7 +13228,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13231,7 +13333,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -13274,7 +13376,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13316,7 +13418,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -13331,15 +13433,15 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13362,13 +13464,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13419,7 +13521,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -13431,21 +13533,21 @@
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13470,14 +13572,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13546,7 +13648,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>107</v>
@@ -13649,7 +13751,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>109</v>
@@ -13754,7 +13856,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>115</v>
@@ -13797,7 +13899,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13839,7 +13941,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -13854,15 +13956,15 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13888,10 +13990,10 @@
         <v>116</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13942,7 +14044,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -13954,21 +14056,21 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13993,14 +14095,14 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14069,7 +14171,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>107</v>
@@ -14172,7 +14274,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>109</v>
@@ -14275,13 +14377,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14306,14 +14408,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14382,10 +14484,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14485,10 +14587,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14590,10 +14692,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14633,7 +14735,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14675,7 +14777,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>86</v>
@@ -14690,15 +14792,15 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14721,13 +14823,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14754,13 +14856,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -14778,7 +14880,7 @@
         <v>77</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -14790,21 +14892,21 @@
         <v>77</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14829,14 +14931,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14905,10 +15007,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15008,10 +15110,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15113,10 +15215,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15156,7 +15258,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>270</v>
+        <v>404</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15198,7 +15300,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>86</v>
@@ -15213,15 +15315,15 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15244,13 +15346,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15277,13 +15379,13 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>77</v>
@@ -15301,7 +15403,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -15313,15 +15415,15 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>115</v>
@@ -15364,7 +15466,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15406,7 +15508,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>86</v>
@@ -15421,15 +15523,15 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15452,13 +15554,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15509,7 +15611,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -15521,21 +15623,21 @@
         <v>77</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15560,14 +15662,14 @@
         <v>94</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15636,7 +15738,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>107</v>
@@ -15739,7 +15841,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>109</v>
@@ -15842,13 +15944,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15873,14 +15975,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15949,10 +16051,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16052,10 +16154,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16157,10 +16259,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16200,7 +16302,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16242,7 +16344,7 @@
         <v>77</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>86</v>
@@ -16257,15 +16359,15 @@
         <v>77</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16288,13 +16390,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16321,13 +16423,13 @@
         <v>77</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16345,7 +16447,7 @@
         <v>77</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>78</v>
@@ -16357,21 +16459,21 @@
         <v>77</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16396,14 +16498,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16472,10 +16574,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16575,10 +16677,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16680,10 +16782,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16723,7 +16825,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>270</v>
+        <v>437</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16765,7 +16867,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>86</v>
@@ -16780,15 +16882,15 @@
         <v>77</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16811,13 +16913,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16844,13 +16946,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -16868,7 +16970,7 @@
         <v>77</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>78</v>
@@ -16880,15 +16982,15 @@
         <v>77</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>115</v>
@@ -16931,7 +17033,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -16973,7 +17075,7 @@
         <v>77</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>86</v>
@@ -16988,15 +17090,15 @@
         <v>77</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17019,13 +17121,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17076,7 +17178,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>78</v>
@@ -17088,21 +17190,21 @@
         <v>77</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17127,14 +17229,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17203,7 +17305,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>107</v>
@@ -17306,7 +17408,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>109</v>
@@ -17409,13 +17511,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17440,14 +17542,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17516,10 +17618,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17619,10 +17721,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17724,10 +17826,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17767,7 +17869,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17809,7 +17911,7 @@
         <v>77</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>86</v>
@@ -17824,15 +17926,15 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17855,13 +17957,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17912,7 +18014,7 @@
         <v>77</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>78</v>
@@ -17924,21 +18026,21 @@
         <v>77</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -17963,14 +18065,14 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18039,10 +18141,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18142,10 +18244,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18247,10 +18349,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18290,7 +18392,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>270</v>
+        <v>466</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18332,7 +18434,7 @@
         <v>77</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>86</v>
@@ -18347,15 +18449,15 @@
         <v>77</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18378,13 +18480,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18411,13 +18513,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -18435,7 +18537,7 @@
         <v>77</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -18447,21 +18549,21 @@
         <v>77</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18486,14 +18588,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18562,10 +18664,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18665,10 +18767,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18770,10 +18872,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18813,7 +18915,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -18855,7 +18957,7 @@
         <v>77</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>86</v>
@@ -18870,15 +18972,15 @@
         <v>77</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18901,13 +19003,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -18958,7 +19060,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>78</v>
@@ -18970,15 +19072,15 @@
         <v>77</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>115</v>
@@ -19021,7 +19123,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -19063,7 +19165,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>86</v>
@@ -19078,15 +19180,15 @@
         <v>77</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19109,13 +19211,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -19166,7 +19268,7 @@
         <v>77</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -19178,21 +19280,21 @@
         <v>77</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>77</v>
@@ -19217,14 +19319,14 @@
         <v>94</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -19293,7 +19395,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>107</v>
@@ -19396,7 +19498,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>109</v>
@@ -19501,7 +19603,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>115</v>
@@ -19544,7 +19646,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -19586,7 +19688,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>86</v>
@@ -19601,15 +19703,15 @@
         <v>77</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19632,13 +19734,13 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -19689,7 +19791,7 @@
         <v>77</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>78</v>
@@ -19701,21 +19803,21 @@
         <v>77</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -19740,14 +19842,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -19816,7 +19918,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>107</v>
@@ -19919,7 +20021,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>109</v>
@@ -20022,13 +20124,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20053,14 +20155,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20129,10 +20231,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20232,10 +20334,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20337,10 +20439,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20380,7 +20482,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20422,7 +20524,7 @@
         <v>77</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>86</v>
@@ -20437,15 +20539,15 @@
         <v>77</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20468,13 +20570,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20525,7 +20627,7 @@
         <v>77</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
@@ -20537,21 +20639,21 @@
         <v>77</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20576,14 +20678,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20652,10 +20754,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20755,10 +20857,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20860,10 +20962,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20903,7 +21005,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -20945,7 +21047,7 @@
         <v>77</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>86</v>
@@ -20960,15 +21062,15 @@
         <v>77</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -20991,13 +21093,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21048,7 +21150,7 @@
         <v>77</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -21060,15 +21162,15 @@
         <v>77</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>115</v>
@@ -21111,7 +21213,7 @@
       </c>
       <c r="Q183" s="2"/>
       <c r="R183" t="s" s="2">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>77</v>
@@ -21153,7 +21255,7 @@
         <v>77</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>86</v>
@@ -21168,15 +21270,15 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21199,13 +21301,13 @@
         <v>77</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -21256,7 +21358,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -21268,21 +21370,21 @@
         <v>77</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>77</v>
@@ -21307,14 +21409,14 @@
         <v>94</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>77</v>
@@ -21383,7 +21485,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>107</v>
@@ -21486,7 +21588,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>109</v>
@@ -21589,13 +21691,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21620,14 +21722,14 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21696,10 +21798,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21799,10 +21901,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21904,10 +22006,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -21947,7 +22049,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -21989,7 +22091,7 @@
         <v>77</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>86</v>
@@ -22004,15 +22106,15 @@
         <v>77</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22035,13 +22137,13 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22092,7 +22194,7 @@
         <v>77</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>78</v>
@@ -22104,21 +22206,21 @@
         <v>77</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22143,14 +22245,14 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22219,10 +22321,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22322,10 +22424,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22427,10 +22529,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22470,7 +22572,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22512,7 +22614,7 @@
         <v>77</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>86</v>
@@ -22527,15 +22629,15 @@
         <v>77</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22558,13 +22660,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -22615,7 +22717,7 @@
         <v>77</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -22627,15 +22729,15 @@
         <v>77</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK197" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>115</v>
@@ -22678,7 +22780,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>77</v>
@@ -22720,7 +22822,7 @@
         <v>77</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>86</v>
@@ -22735,15 +22837,15 @@
         <v>77</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22766,13 +22868,13 @@
         <v>77</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -22823,7 +22925,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -22835,18 +22937,18 @@
         <v>77</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -22928,7 +23030,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>86</v>
@@ -22943,15 +23045,15 @@
         <v>77</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -22974,13 +23076,13 @@
         <v>77</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -23031,7 +23133,7 @@
         <v>77</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -23043,10 +23145,10 @@
         <v>77</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ConditionDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ConditionDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -346,7 +346,8 @@
 In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](https://hl7.org/fhir/resou.html#meta) element to indicate where the current master source of the resource can be found.</t>
   </si>
   <si>
-    <t>Allows the condition definition to be referenced by a single globally unique identifier. Element `ConditionDefinition.url` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Allows the condition definition to be referenced by a single globally unique identifier. Element `ConditionDefinition.url` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.url`: `http://hl7.org/fhir/StructureDefinition/artifact-url`.</t>
   </si>
   <si>
     <t>Extension.extension:url.id</t>
@@ -430,7 +431,8 @@
     <t>There may be different condition definition instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the condition definition with the format [url]|[version]. The version SHOULD NOT contain a '#' - see [Business Version](https://hl7.org/fhir/resource.h.html#bv-format).</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.version` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.version` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.version`: `http://hl7.org/fhir/StructureDefinition/artifact-version`.</t>
   </si>
   <si>
     <t>Extension.extension:version.id</t>
@@ -463,7 +465,8 @@
     <t>If set as a string, this is a FHIRPath expression that has two additional context variables passed in - %version1 and %version2 and will return a negative number if version1 is newer, a positive number if version2 and a 0 if the version ordering can't be successfully be determined.</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.versionAlgorithm[x]` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.versionAlgorithm[x]` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.</t>
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.id</t>
@@ -500,7 +503,8 @@
     <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
   </si>
   <si>
-    <t>Support human navigation and code generation. Element `ConditionDefinition.name` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Support human navigation and code generation. Element `ConditionDefinition.name` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.name`: `http://hl7.org/fhir/StructureDefinition/artifact-name`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -533,7 +537,8 @@
     <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.title` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.title` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -597,7 +602,8 @@
 See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.status` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.status` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -619,15 +625,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -643,7 +640,8 @@
     <t>Allows filtering of condition definitions that are appropriate for use versus not.</t>
   </si>
   <si>
-    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level condition definition. Element `ConditionDefinition.experimental` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level condition definition. Element `ConditionDefinition.experimental` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.experimental`: `http://hl7.org/fhir/StructureDefinition/artifact-experimental`.</t>
   </si>
   <si>
     <t>Extension.extension:experimental.id</t>
@@ -681,7 +679,8 @@
 See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.date` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.date` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.date`: `http://hl7.org/fhir/StructureDefinition/artifact-date`.</t>
   </si>
   <si>
     <t>Extension.extension:date.id</t>
@@ -718,7 +717,8 @@
     <t>Usually an organization but may be an individual. The publisher (or steward) of the condition definition is the organization or individual primarily responsible for the maintenance and upkeep of the condition definition. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the condition definition. This item SHOULD be populated unless the information is available from context.</t>
   </si>
   <si>
-    <t>Helps establish the "authority/credibility" of the condition definition.  May also allow for contact. Element `ConditionDefinition.publisher` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Helps establish the "authority/credibility" of the condition definition.  May also allow for contact. Element `ConditionDefinition.publisher` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.publisher`: `http://hl7.org/fhir/StructureDefinition/artifact-publisher`.</t>
   </si>
   <si>
     <t>Extension.extension:publisher.id</t>
@@ -752,7 +752,8 @@
 See guidance around (not) making local changes to elements [here](https://hl7.org/fhir/canonicalreso.html#localization).</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.contact` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.contact` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.contact`: `http://hl7.org/fhir/StructureDefinition/artifact-contact`.</t>
   </si>
   <si>
     <t>Extension.extension:contact.id</t>
@@ -789,7 +790,8 @@
     <t>This description can be used to capture details such as comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the condition definition as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the condition definition is presumed to be the predominant language in the place the condition definition was created).</t>
   </si>
   <si>
-    <t>Element `ConditionDefinition.description` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Element `ConditionDefinition.description` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -826,7 +828,8 @@
     <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
   </si>
   <si>
-    <t>Assist in searching for appropriate content. Element `ConditionDefinition.useContext` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.</t>
+    <t>Assist in searching for appropriate content. Element `ConditionDefinition.useContext` is not mapped to FHIR R4, since FHIR R5 `ConditionDefinition` is not mapped.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConditionDefinition.useContext`: `http://hl7.org/fhir/StructureDefinition/artifact-useContext`.</t>
   </si>
   <si>
     <t>Extension.extension:useContext.id</t>
@@ -886,15 +889,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -925,15 +919,6 @@
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:severity</t>
   </si>
   <si>
@@ -967,12 +952,6 @@
     <t>Extension.extension:severity.value[x]</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-severity-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:bodySite</t>
   </si>
   <si>
@@ -1006,12 +985,6 @@
     <t>Extension.extension:bodySite.value[x]</t>
   </si>
   <si>
-    <t>SNOMED CT Body site concepts</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-body-site-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:stage</t>
   </si>
   <si>
@@ -1042,12 +1015,6 @@
     <t>Extension.extension:stage.value[x]</t>
   </si>
   <si>
-    <t>Codes describing condition stages (e.g. Cancer stages).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-stage-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:hasSeverity</t>
   </si>
   <si>
@@ -1231,12 +1198,6 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-category-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:observation.extension:code</t>
   </si>
   <si>
@@ -1262,12 +1223,6 @@
   </si>
   <si>
     <t>Extension.extension:observation.extension:code.value[x]</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:observation.url</t>
@@ -1331,12 +1286,6 @@
     <t>Extension.extension:medication.extension:category.value[x]</t>
   </si>
   <si>
-    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicationrequest-category-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:medication.extension:code</t>
   </si>
   <si>
@@ -1362,12 +1311,6 @@
   </si>
   <si>
     <t>Extension.extension:medication.extension:code.value[x]</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medication-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:medication.url</t>
@@ -1524,7 +1467,7 @@
     <t>Extension.extension:team.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -1609,7 +1552,7 @@
     <t>Extension.extension:questionnaire.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire)
 </t>
   </si>
   <si>
@@ -1700,7 +1643,7 @@
     <t>Extension.extension:plan.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition)
 </t>
   </si>
   <si>
@@ -2060,8 +2003,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="140.703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.15625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6139,13 +6082,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6183,13 +6126,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6214,16 +6157,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6292,7 +6235,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6395,7 +6338,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6500,7 +6443,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6543,7 +6486,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6605,7 +6548,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -6631,16 +6574,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6710,13 +6653,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6741,16 +6684,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6819,7 +6762,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6922,7 +6865,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -7027,7 +6970,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -7070,7 +7013,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7132,7 +7075,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -7158,16 +7101,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7237,13 +7180,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7268,16 +7211,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7346,7 +7289,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7449,7 +7392,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7554,7 +7497,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7597,7 +7540,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7659,7 +7602,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -7688,13 +7631,13 @@
         <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7764,13 +7707,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7795,16 +7738,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7873,7 +7816,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7976,7 +7919,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -8081,7 +8024,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -8124,7 +8067,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8186,7 +8129,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -8212,16 +8155,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8291,13 +8234,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8322,16 +8265,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8400,7 +8343,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8503,7 +8446,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8608,7 +8551,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8651,7 +8594,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8713,7 +8656,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8739,16 +8682,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8818,13 +8761,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8849,16 +8792,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8927,7 +8870,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -9030,7 +8973,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -9135,7 +9078,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -9178,7 +9121,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9240,7 +9183,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -9266,16 +9209,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9345,13 +9288,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9376,16 +9319,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9454,7 +9397,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9557,7 +9500,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9662,7 +9605,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9705,7 +9648,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9767,7 +9710,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>124</v>
@@ -9793,16 +9736,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9828,13 +9771,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -9872,13 +9815,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9903,14 +9846,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9979,7 +9922,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -10082,7 +10025,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -10187,7 +10130,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10230,7 +10173,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10292,7 +10235,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>124</v>
@@ -10318,13 +10261,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="M79" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10351,13 +10294,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -10395,13 +10338,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10426,16 +10369,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10504,7 +10447,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10607,7 +10550,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10712,7 +10655,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10755,7 +10698,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10817,7 +10760,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>124</v>
@@ -10843,16 +10786,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10878,13 +10821,13 @@
         <v>77</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
@@ -10922,13 +10865,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10953,16 +10896,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11031,7 +10974,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11134,7 +11077,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11239,7 +11182,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11282,7 +11225,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11344,7 +11287,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>124</v>
@@ -11370,16 +11313,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11405,13 +11348,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -11449,13 +11392,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11480,14 +11423,14 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11556,7 +11499,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11659,7 +11602,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11764,7 +11707,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11807,7 +11750,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11869,7 +11812,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>124</v>
@@ -11895,13 +11838,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11928,13 +11871,13 @@
         <v>77</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>77</v>
@@ -11972,13 +11915,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12003,14 +11946,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12079,7 +12022,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12182,7 +12125,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12287,7 +12230,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12330,7 +12273,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12392,7 +12335,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>124</v>
@@ -12418,13 +12361,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12495,13 +12438,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12526,14 +12469,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12602,7 +12545,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12705,7 +12648,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12810,7 +12753,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12853,7 +12796,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12915,7 +12858,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>124</v>
@@ -12941,13 +12884,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13018,13 +12961,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -13049,14 +12992,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13125,7 +13068,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13228,7 +13171,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13333,7 +13276,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -13376,7 +13319,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13438,7 +13381,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>124</v>
@@ -13464,13 +13407,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13541,13 +13484,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13572,14 +13515,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13648,7 +13591,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>107</v>
@@ -13751,7 +13694,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>109</v>
@@ -13856,7 +13799,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>115</v>
@@ -13899,7 +13842,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13961,7 +13904,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>124</v>
@@ -13990,10 +13933,10 @@
         <v>116</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14064,13 +14007,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -14095,14 +14038,14 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14171,7 +14114,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>107</v>
@@ -14274,7 +14217,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>109</v>
@@ -14377,13 +14320,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14408,14 +14351,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14484,10 +14427,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14587,10 +14530,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14692,10 +14635,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14735,7 +14678,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14797,10 +14740,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14823,13 +14766,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14856,13 +14799,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -14900,13 +14843,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14931,14 +14874,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15007,10 +14950,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15110,10 +15053,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15215,10 +15158,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15258,7 +15201,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15320,10 +15263,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15346,13 +15289,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15379,13 +15322,13 @@
         <v>77</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>77</v>
@@ -15423,7 +15366,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>115</v>
@@ -15466,7 +15409,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15528,7 +15471,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>124</v>
@@ -15554,13 +15497,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15631,13 +15574,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15662,14 +15605,14 @@
         <v>94</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15738,7 +15681,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>107</v>
@@ -15841,7 +15784,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>109</v>
@@ -15944,13 +15887,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15975,14 +15918,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16051,10 +15994,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16154,10 +16097,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16259,10 +16202,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16302,7 +16245,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16364,10 +16307,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16390,13 +16333,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16423,13 +16366,13 @@
         <v>77</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16467,13 +16410,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16498,14 +16441,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16574,10 +16517,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16677,10 +16620,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16782,10 +16725,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16825,7 +16768,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16887,10 +16830,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16913,13 +16856,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16946,13 +16889,13 @@
         <v>77</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>77</v>
@@ -16990,7 +16933,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>115</v>
@@ -17033,7 +16976,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17095,7 +17038,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>124</v>
@@ -17121,13 +17064,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17198,13 +17141,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17229,14 +17172,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17305,7 +17248,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>107</v>
@@ -17408,7 +17351,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>109</v>
@@ -17511,13 +17454,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17542,14 +17485,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17618,10 +17561,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17721,10 +17664,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17826,10 +17769,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17869,7 +17812,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17931,10 +17874,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17960,10 +17903,10 @@
         <v>193</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -18034,13 +17977,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18065,14 +18008,14 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18141,10 +18084,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18244,10 +18187,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18349,10 +18292,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18392,7 +18335,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18454,10 +18397,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18480,13 +18423,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18513,13 +18456,13 @@
         <v>77</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>77</v>
@@ -18557,13 +18500,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18588,14 +18531,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18664,10 +18607,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18767,10 +18710,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18872,10 +18815,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18915,7 +18858,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -18977,10 +18920,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19003,13 +18946,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19080,7 +19023,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>115</v>
@@ -19123,7 +19066,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -19185,7 +19128,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>124</v>
@@ -19211,13 +19154,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -19288,13 +19231,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>77</v>
@@ -19319,14 +19262,14 @@
         <v>94</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -19395,7 +19338,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>107</v>
@@ -19498,7 +19441,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>109</v>
@@ -19603,7 +19546,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>115</v>
@@ -19646,7 +19589,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -19708,7 +19651,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>124</v>
@@ -19734,13 +19677,13 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -19811,13 +19754,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -19842,14 +19785,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -19918,7 +19861,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>107</v>
@@ -20021,7 +19964,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>109</v>
@@ -20124,13 +20067,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20155,14 +20098,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20231,10 +20174,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20334,10 +20277,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20439,10 +20382,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20482,7 +20425,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20544,10 +20487,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20573,10 +20516,10 @@
         <v>193</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20647,13 +20590,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20678,14 +20621,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20754,10 +20697,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20857,10 +20800,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20962,10 +20905,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21005,7 +20948,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21067,10 +21010,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21093,13 +21036,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21170,7 +21113,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>115</v>
@@ -21213,7 +21156,7 @@
       </c>
       <c r="Q183" s="2"/>
       <c r="R183" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>77</v>
@@ -21275,7 +21218,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>124</v>
@@ -21301,13 +21244,13 @@
         <v>77</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -21378,13 +21321,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>77</v>
@@ -21409,14 +21352,14 @@
         <v>94</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>77</v>
@@ -21485,7 +21428,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>107</v>
@@ -21588,7 +21531,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>109</v>
@@ -21691,13 +21634,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21722,14 +21665,14 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21798,10 +21741,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21901,10 +21844,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22006,10 +21949,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22049,7 +21992,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22111,10 +22054,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22137,13 +22080,13 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22214,13 +22157,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22245,14 +22188,14 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22321,10 +22264,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22424,10 +22367,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22529,10 +22472,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22572,7 +22515,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22634,10 +22577,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22660,13 +22603,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -22737,7 +22680,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>115</v>
@@ -22780,7 +22723,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>552</v>
+        <v>529</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>77</v>
@@ -22842,7 +22785,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>124</v>
@@ -22868,13 +22811,13 @@
         <v>77</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -23076,13 +23019,13 @@
         <v>77</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>

--- a/StructureDefinition-ext-R5-ConditionDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ConditionDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6660" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6659" uniqueCount="546">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -488,6 +488,12 @@
 Coding</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-version-algorithm-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -625,6 +631,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -1198,6 +1213,15 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:observation.extension:code</t>
   </si>
   <si>
@@ -1286,6 +1310,15 @@
     <t>Extension.extension:medication.extension:category.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:medication.extension:code</t>
   </si>
   <si>
@@ -1371,6 +1404,12 @@
   </si>
   <si>
     <t>Extension.extension:precondition.extension:type.value[x]</t>
+  </si>
+  <si>
+    <t>Kind of precondition for the condition.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-condition-precondition-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:precondition.extension:code</t>
@@ -1467,7 +1506,7 @@
     <t>Extension.extension:team.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1522,6 +1561,12 @@
     <t>Extension.extension:questionnaire.extension:purpose.value[x]</t>
   </si>
   <si>
+    <t>The use of a questionnaire.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-condition-questionnaire-purpose-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:questionnaire.extension:reference</t>
   </si>
   <si>
@@ -1552,7 +1597,7 @@
     <t>Extension.extension:questionnaire.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -1643,7 +1688,7 @@
     <t>Extension.extension:plan.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -2003,8 +2048,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="140.703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="80.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3978,13 +4023,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4022,13 +4065,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4053,16 +4096,16 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4131,7 +4174,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -4234,7 +4277,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -4339,7 +4382,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -4382,7 +4425,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4444,7 +4487,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>124</v>
@@ -4473,13 +4516,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4549,13 +4592,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4580,16 +4623,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4658,7 +4701,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -4761,7 +4804,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -4866,7 +4909,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -4909,7 +4952,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4971,7 +5014,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>124</v>
@@ -5000,13 +5043,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5076,13 +5119,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5107,14 +5150,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5183,7 +5226,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>107</v>
@@ -5286,7 +5329,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>109</v>
@@ -5391,7 +5434,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>115</v>
@@ -5434,7 +5477,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5496,7 +5539,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>124</v>
@@ -5525,10 +5568,10 @@
         <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5599,13 +5642,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5630,16 +5673,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5708,7 +5751,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>107</v>
@@ -5811,7 +5854,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>109</v>
@@ -5916,7 +5959,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>115</v>
@@ -5959,7 +6002,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6021,7 +6064,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>124</v>
@@ -6047,16 +6090,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6082,13 +6125,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6126,13 +6169,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6157,16 +6200,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6235,7 +6278,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>107</v>
@@ -6338,7 +6381,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>109</v>
@@ -6443,7 +6486,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>115</v>
@@ -6486,7 +6529,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6548,7 +6591,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>124</v>
@@ -6574,16 +6617,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6653,13 +6696,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6684,16 +6727,16 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6762,7 +6805,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>107</v>
@@ -6865,7 +6908,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>109</v>
@@ -6970,7 +7013,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>115</v>
@@ -7013,7 +7056,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7075,7 +7118,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>124</v>
@@ -7101,16 +7144,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7180,13 +7223,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7211,16 +7254,16 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7289,7 +7332,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>107</v>
@@ -7392,7 +7435,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>109</v>
@@ -7497,7 +7540,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>115</v>
@@ -7540,7 +7583,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7602,7 +7645,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>124</v>
@@ -7631,13 +7674,13 @@
         <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7707,13 +7750,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7738,16 +7781,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7816,7 +7859,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>107</v>
@@ -7919,7 +7962,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>109</v>
@@ -8024,7 +8067,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>115</v>
@@ -8067,7 +8110,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8129,7 +8172,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>124</v>
@@ -8155,16 +8198,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8234,13 +8277,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8265,16 +8308,16 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8343,7 +8386,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>107</v>
@@ -8446,7 +8489,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>109</v>
@@ -8551,7 +8594,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>115</v>
@@ -8594,7 +8637,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8656,7 +8699,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>124</v>
@@ -8682,16 +8725,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8761,13 +8804,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8792,16 +8835,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8870,7 +8913,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>107</v>
@@ -8973,7 +9016,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>109</v>
@@ -9078,7 +9121,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>115</v>
@@ -9121,7 +9164,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9183,7 +9226,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>124</v>
@@ -9209,16 +9252,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9288,13 +9331,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9319,16 +9362,16 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9397,7 +9440,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>107</v>
@@ -9500,7 +9543,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>109</v>
@@ -9605,7 +9648,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>115</v>
@@ -9648,7 +9691,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9710,7 +9753,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>124</v>
@@ -9736,16 +9779,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9815,13 +9858,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9846,14 +9889,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9922,7 +9965,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>107</v>
@@ -10025,7 +10068,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>109</v>
@@ -10130,7 +10173,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>115</v>
@@ -10173,7 +10216,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10235,7 +10278,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>124</v>
@@ -10261,13 +10304,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10338,13 +10381,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10369,16 +10412,16 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10447,7 +10490,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>107</v>
@@ -10550,7 +10593,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>109</v>
@@ -10655,7 +10698,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>115</v>
@@ -10698,7 +10741,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10760,7 +10803,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>124</v>
@@ -10786,16 +10829,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10865,13 +10908,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10896,16 +10939,16 @@
         <v>94</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10974,7 +11017,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>107</v>
@@ -11077,7 +11120,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>109</v>
@@ -11182,7 +11225,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>115</v>
@@ -11225,7 +11268,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11287,7 +11330,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>124</v>
@@ -11313,16 +11356,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11392,13 +11435,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11423,14 +11466,14 @@
         <v>94</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11499,7 +11542,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>107</v>
@@ -11602,7 +11645,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>109</v>
@@ -11707,7 +11750,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>115</v>
@@ -11750,7 +11793,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11812,7 +11855,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>124</v>
@@ -11838,13 +11881,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11915,13 +11958,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11946,14 +11989,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12022,7 +12065,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>107</v>
@@ -12125,7 +12168,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>109</v>
@@ -12230,7 +12273,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>115</v>
@@ -12273,7 +12316,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12335,7 +12378,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>124</v>
@@ -12361,13 +12404,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12438,13 +12481,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12469,14 +12512,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12545,7 +12588,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>107</v>
@@ -12648,7 +12691,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>109</v>
@@ -12753,7 +12796,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>115</v>
@@ -12796,7 +12839,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12858,7 +12901,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>124</v>
@@ -12884,13 +12927,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12961,13 +13004,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12992,14 +13035,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -13068,7 +13111,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>107</v>
@@ -13171,7 +13214,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>109</v>
@@ -13276,7 +13319,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>115</v>
@@ -13319,7 +13362,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13381,7 +13424,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>124</v>
@@ -13407,13 +13450,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13484,13 +13527,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13515,14 +13558,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13591,7 +13634,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>107</v>
@@ -13694,7 +13737,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>109</v>
@@ -13799,7 +13842,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>115</v>
@@ -13842,7 +13885,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13904,7 +13947,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>124</v>
@@ -13933,10 +13976,10 @@
         <v>116</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14007,13 +14050,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -14038,14 +14081,14 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14114,7 +14157,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>107</v>
@@ -14217,7 +14260,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>109</v>
@@ -14320,13 +14363,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>77</v>
@@ -14351,14 +14394,14 @@
         <v>94</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>77</v>
@@ -14427,10 +14470,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14530,10 +14573,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14635,10 +14678,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14678,7 +14721,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -14740,10 +14783,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -14766,13 +14809,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -14799,13 +14842,13 @@
         <v>77</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>77</v>
+        <v>386</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>77</v>
@@ -14843,13 +14886,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -14874,14 +14917,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -14950,10 +14993,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15053,10 +15096,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15158,10 +15201,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15201,7 +15244,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15263,10 +15306,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15289,13 +15332,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15366,7 +15409,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>115</v>
@@ -15409,7 +15452,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -15471,7 +15514,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>124</v>
@@ -15497,13 +15540,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15574,13 +15617,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15605,14 +15648,14 @@
         <v>94</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15681,7 +15724,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>107</v>
@@ -15784,7 +15827,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>109</v>
@@ -15887,13 +15930,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -15918,14 +15961,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -15994,10 +16037,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16097,10 +16140,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16202,10 +16245,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16245,7 +16288,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16307,10 +16350,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16333,13 +16376,13 @@
         <v>77</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16366,13 +16409,13 @@
         <v>77</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16410,13 +16453,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16441,14 +16484,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16517,10 +16560,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16620,10 +16663,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16725,10 +16768,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16768,7 +16811,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -16830,10 +16873,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -16856,13 +16899,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -16933,7 +16976,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>115</v>
@@ -16976,7 +17019,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17038,7 +17081,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>124</v>
@@ -17064,13 +17107,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17141,13 +17184,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17172,14 +17215,14 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17248,7 +17291,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>107</v>
@@ -17351,7 +17394,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>109</v>
@@ -17454,13 +17497,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17485,14 +17528,14 @@
         <v>94</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17561,10 +17604,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17664,10 +17707,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17769,10 +17812,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -17812,7 +17855,7 @@
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="S151" t="s" s="2">
         <v>77</v>
@@ -17874,10 +17917,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -17900,13 +17943,13 @@
         <v>77</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -17933,13 +17976,13 @@
         <v>77</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>77</v>
@@ -17977,13 +18020,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18008,14 +18051,14 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>77</v>
@@ -18084,10 +18127,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18187,10 +18230,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18292,10 +18335,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18335,7 +18378,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18397,10 +18440,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18423,13 +18466,13 @@
         <v>77</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -18500,13 +18543,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18531,14 +18574,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -18607,10 +18650,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18710,10 +18753,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18815,10 +18858,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -18858,7 +18901,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -18920,10 +18963,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -18946,13 +18989,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19023,7 +19066,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>115</v>
@@ -19066,7 +19109,7 @@
       </c>
       <c r="Q163" s="2"/>
       <c r="R163" t="s" s="2">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="S163" t="s" s="2">
         <v>77</v>
@@ -19128,7 +19171,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>124</v>
@@ -19154,13 +19197,13 @@
         <v>77</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
@@ -19231,13 +19274,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>77</v>
@@ -19262,14 +19305,14 @@
         <v>94</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>77</v>
@@ -19338,7 +19381,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>107</v>
@@ -19441,7 +19484,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>109</v>
@@ -19546,7 +19589,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>115</v>
@@ -19589,7 +19632,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -19651,7 +19694,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>124</v>
@@ -19677,13 +19720,13 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -19754,13 +19797,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -19785,14 +19828,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -19861,7 +19904,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>107</v>
@@ -19964,7 +20007,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>109</v>
@@ -20067,13 +20110,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20098,14 +20141,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20174,10 +20217,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20277,10 +20320,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20382,10 +20425,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20425,7 +20468,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20487,10 +20530,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20513,13 +20556,13 @@
         <v>77</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -20546,13 +20589,13 @@
         <v>77</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>77</v>
@@ -20590,13 +20633,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -20621,14 +20664,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -20697,10 +20740,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20800,10 +20843,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20905,10 +20948,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -20948,7 +20991,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21010,10 +21053,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21036,13 +21079,13 @@
         <v>77</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21113,7 +21156,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>115</v>
@@ -21156,7 +21199,7 @@
       </c>
       <c r="Q183" s="2"/>
       <c r="R183" t="s" s="2">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="S183" t="s" s="2">
         <v>77</v>
@@ -21218,7 +21261,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>124</v>
@@ -21244,13 +21287,13 @@
         <v>77</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -21321,13 +21364,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>77</v>
@@ -21352,14 +21395,14 @@
         <v>94</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>77</v>
@@ -21428,7 +21471,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>107</v>
@@ -21531,7 +21574,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>109</v>
@@ -21634,13 +21677,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21665,14 +21708,14 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -21741,10 +21784,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21844,10 +21887,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -21949,10 +21992,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -21992,7 +22035,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22054,10 +22097,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22080,13 +22123,13 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22157,13 +22200,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>109</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22188,14 +22231,14 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22264,10 +22307,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22367,10 +22410,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22472,10 +22515,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -22515,7 +22558,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -22577,10 +22620,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22603,13 +22646,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -22680,7 +22723,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>115</v>
@@ -22723,7 +22766,7 @@
       </c>
       <c r="Q198" s="2"/>
       <c r="R198" t="s" s="2">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="S198" t="s" s="2">
         <v>77</v>
@@ -22785,7 +22828,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>124</v>
@@ -22811,13 +22854,13 @@
         <v>77</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -23019,13 +23062,13 @@
         <v>77</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
